--- a/biology/Mycologie/Liste_des_espèces_du_genre_Puccinia/Liste_des_espèces_du_genre_Puccinia.xlsx
+++ b/biology/Mycologie/Liste_des_espèces_du_genre_Puccinia/Liste_des_espèces_du_genre_Puccinia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Puccinia</t>
+          <t>Liste_des_espèces_du_genre_Puccinia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste non exhaustive des espèces de champignons du genre Puccinia. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Puccinia</t>
+          <t>Liste_des_espèces_du_genre_Puccinia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le Dictionary of the Fungi (10e édition, 2008), ce genre cosmopolite comprend environ 4000 espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le Dictionary of the Fungi (10e édition, 2008), ce genre cosmopolite comprend environ 4000 espèces.
 Puccinia abrotani
 Puccinia abrupta
 Puccinia acetosae
@@ -586,7 +600,7 @@
 Puccinia cancellata
 Puccinia cannae
 Puccinia caricina
-Puccinia caricis-araliae[2]
+Puccinia caricis-araliae
 Puccinia caricis-shepherdiae
 Puccinia carthami
 Puccinia caulicola
@@ -827,7 +841,7 @@
 Puccinia recondita
 Puccinia reidii
 Puccinia rhei-undulati
-Puccinia rhodosensis[3]
+Puccinia rhodosensis
 Puccinia ribesii-caricis
 Puccinia ribis
 Puccinia rigensis
